--- a/biology/Botanique/Reine-claude/Reine-claude.xlsx
+++ b/biology/Botanique/Reine-claude/Reine-claude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le reine-claude ou prunier d'Italie est un cultivar de prunier, sous-groupe de Prunus domestica n-subsp. italica (Borkh.) Hegi. La prune qu'il produit se nomme la reine-claude.
-Le reine-claude a été obtenu en France à la suite de la découverte d'un prunier importé d'Asie produisant des prunes de couleur verte. Ce prunier fut apporté à François Ier par l'ambassadeur du royaume de France auprès de la Sublime Porte, de la part de Soliman le Magnifique. Il lui fut donné l'appellation « reine-claude » en l'honneur de Claude de France (1499-1524), femme de François Ier surnommée La bonne reine[1].
+Le reine-claude a été obtenu en France à la suite de la découverte d'un prunier importé d'Asie produisant des prunes de couleur verte. Ce prunier fut apporté à François Ier par l'ambassadeur du royaume de France auprès de la Sublime Porte, de la part de Soliman le Magnifique. Il lui fut donné l'appellation « reine-claude » en l'honneur de Claude de France (1499-1524), femme de François Ier surnommée La bonne reine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Plusieurs cultivars</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les cultivars de reine-claude[2] donnent des fruits à chair parfumée et à texture ferme et juteuse, ce qui les rend fondants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les cultivars de reine-claude donnent des fruits à chair parfumée et à texture ferme et juteuse, ce qui les rend fondants.
 Il existe divers cultivars de reine-claude :
 reine-claude de Bavay pour terres légères et exposition chaude, mûre  mi-septembre, chair jaune-verdâtre ;
 reine-claude diaphane, mûre fin août, fruits jaune d'or lavé de rose ;
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pruniers reines-claudes sont cultivés en formes de plein vent. Ils sont très productifs et donnent de gros fruits qui font de la reine-claude une des meilleures prunes de table.
 Les reines-claudes, comme les mirabelles, se reproduisent de façon assez fidèle par simple semis d'un noyau (après stratification).
@@ -580,7 +596,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bleu a certainement pâli depuis ce matin mais les reines-claudes, vertes hier sous leur poudre d'argent, ont toutes ce soir une joue d'ambre.
